--- a/Additional Files/Experiment_of_disease_class_result.xlsx
+++ b/Additional Files/Experiment_of_disease_class_result.xlsx
@@ -298,9 +298,6 @@
     <t>RBM39</t>
   </si>
   <si>
-    <t>LRAR</t>
-  </si>
-  <si>
     <t>F3PC</t>
   </si>
   <si>
@@ -343,6 +340,10 @@
   </si>
   <si>
     <t>Developmental</t>
+  </si>
+  <si>
+    <t>LR-RPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,7 +516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LRAR</c:v>
+                  <c:v>LR-RPN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3224,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3237,19 +3238,19 @@
     <row r="7" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15" x14ac:dyDescent="0.25">
@@ -3276,7 +3277,7 @@
     <row r="9" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10">
         <v>0.99382999999999999</v>
@@ -3318,7 +3319,7 @@
     <row r="11" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="10">
         <v>0.88571</v>
@@ -3339,7 +3340,7 @@
     <row r="12" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="10">
         <v>0.98353999999999997</v>
@@ -3360,7 +3361,7 @@
     <row r="13" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="10">
         <v>0.86065999999999998</v>
@@ -3381,7 +3382,7 @@
     <row r="14" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="10">
         <v>0.96667000000000003</v>
@@ -3402,7 +3403,7 @@
     <row r="15" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="10">
         <v>0.97221999999999997</v>
@@ -3423,7 +3424,7 @@
     <row r="16" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="10">
         <v>0.90908999999999995</v>
@@ -3444,7 +3445,7 @@
     <row r="17" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="10">
         <v>0.82142999999999999</v>
@@ -3465,7 +3466,7 @@
     <row r="18" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="10">
         <v>0.89188999999999996</v>
@@ -3486,7 +3487,7 @@
     <row r="19" spans="4:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="10">
         <v>0.95713999999999999</v>
